--- a/public/bulkupload.xlsx
+++ b/public/bulkupload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://9psb-my.sharepoint.com/personal/josiah_akpaetuk_9psb_com_ng/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{A2557379-C92C-4E15-835C-B9ABF8CB1826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66E335AB-212F-4C30-A311-9A09418219F8}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{A2557379-C92C-4E15-835C-B9ABF8CB1826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC17CC12-2280-41E5-91AE-67CA4965AC7A}"/>
   <bookViews>
-    <workbookView xWindow="59190" yWindow="3600" windowWidth="17280" windowHeight="10080" xr2:uid="{EFFBE865-7A49-40EF-B179-525EB0F0C818}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{EFFBE865-7A49-40EF-B179-525EB0F0C818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Pizza</t>
   </si>
@@ -50,16 +50,67 @@
     <t>Pins</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Ewa</t>
-  </si>
-  <si>
     <t>category_name</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>item_price</t>
+  </si>
+  <si>
+    <t>item_image_url</t>
+  </si>
+  <si>
+    <t>Alphabeta</t>
+  </si>
+  <si>
+    <t>Alphaalpha</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Echo</t>
+  </si>
+  <si>
+    <t>category_image_url</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>pounndo</t>
+  </si>
+  <si>
+    <t>Semo</t>
+  </si>
+  <si>
+    <t>Amala</t>
+  </si>
+  <si>
+    <t>Fufu</t>
+  </si>
+  <si>
+    <t>grounded yam</t>
+  </si>
+  <si>
+    <t>grounded casava</t>
+  </si>
+  <si>
+    <t>grounded, yam</t>
+  </si>
+  <si>
+    <t>mershed casava</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>Iyabasira</t>
   </si>
 </sst>
 </file>
@@ -435,53 +486,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C2AAAF-0448-43D9-B841-D341B8E9A1DB}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.47265625" customWidth="1"/>
+    <col min="2" max="2" width="21.15625" customWidth="1"/>
+    <col min="3" max="3" width="24.41796875" customWidth="1"/>
+    <col min="4" max="4" width="21.20703125" customWidth="1"/>
+    <col min="5" max="5" width="16.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>7</v>
       </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
